--- a/tests/test_data/test_dfs_kiz.xlsx
+++ b/tests/test_data/test_dfs_kiz.xlsx
@@ -97,9 +97,6 @@
     <t>m_alg2</t>
   </si>
   <si>
-    <t>wohngeld_init</t>
-  </si>
-  <si>
     <t>fehlbedarf_alg2</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>wgkiz_vorrang</t>
+  </si>
+  <si>
+    <t>wohngeld_basis_hh</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
     <col min="30" max="30" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>6</v>
@@ -596,13 +596,13 @@
         <v>13</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>10</v>
@@ -644,25 +644,25 @@
         <v>24</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="8">
-        <f t="shared" ref="AG3:AG16" si="10">AE3*170*M3-AF3</f>
+        <f t="shared" ref="AG3:AG13" si="10">AE3*170*M3-AF3</f>
         <v>170</v>
       </c>
       <c r="AH3" s="28">

--- a/tests/test_data/test_dfs_kiz.xlsx
+++ b/tests/test_data/test_dfs_kiz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>hid</t>
   </si>
@@ -67,9 +67,6 @@
     <t>wohngeld</t>
   </si>
   <si>
-    <t>alg2_gross_ek_hh</t>
-  </si>
-  <si>
     <t>kiz_ek_regel</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>wohngeld_basis_hh</t>
+  </si>
+  <si>
+    <t>hhtyp</t>
+  </si>
+  <si>
+    <t>alg2_grossek_hh</t>
   </si>
 </sst>
 </file>
@@ -532,24 +535,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -557,115 +560,118 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="23" t="s">
+      <c r="AE1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="AG1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2</f>
         <v>1</v>
@@ -677,129 +683,132 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>700</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="K2" t="b">
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L13" si="0">E2-M2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M13" si="0">F2-N2</f>
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>1200</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>644</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>350</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1765</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>1300</v>
       </c>
-      <c r="S2">
-        <f>M2*190</f>
+      <c r="T2">
+        <f>N2*190</f>
         <v>190</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2016</v>
       </c>
-      <c r="V2" s="1">
-        <f>IF(OR($AM2=TRUE,$AN2=TRUE),$AG2,0)</f>
+      <c r="W2" s="1">
+        <f>IF(OR($AN2=TRUE,$AO2=TRUE),$AH2,0)</f>
         <v>170</v>
       </c>
-      <c r="W2" s="1">
-        <f>IF(AND($AL2=FALSE,$AM2=FALSE,$AN2=FALSE),$R2,0)</f>
-        <v>0</v>
-      </c>
       <c r="X2" s="1">
-        <f>IF(OR($AL2=TRUE,$AN2=TRUE),$P2,0)</f>
+        <f>IF(AND($AM2=FALSE,$AN2=FALSE,$AO2=FALSE),$S2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>IF(OR($AM2=TRUE,$AO2=TRUE),$Q2,0)</f>
         <v>350</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>2*364</f>
         <v>728</v>
       </c>
-      <c r="AA2" s="8">
-        <f>0.8316*(H2+I2)</f>
+      <c r="AB2" s="8">
+        <f>0.8316*(I2+J2)</f>
         <v>665.28</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="24">
-        <f>Z2+AA2</f>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="24">
+        <f>AA2+AB2</f>
         <v>1393.28</v>
       </c>
-      <c r="AD2" s="10">
-        <f>AC2+170*M2</f>
+      <c r="AE2" s="10">
+        <f>AD2+170*N2</f>
         <v>1563.28</v>
       </c>
-      <c r="AE2" t="b">
-        <f>AND((N2&gt;900),(O2&lt;=AD2))</f>
-        <v>1</v>
-      </c>
-      <c r="AF2" s="8">
-        <f>ROUND(MAX(O2-AC2,0)/10,0)*5</f>
-        <v>0</v>
+      <c r="AF2" t="b">
+        <f>AND((O2&gt;900),(P2&lt;=AE2))</f>
+        <v>1</v>
       </c>
       <c r="AG2" s="8">
-        <f>AE2*170*M2-AF2</f>
+        <f>ROUND(MAX(P2-AD2,0)/10,0)*5</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8">
+        <f>AF2*170*N2-AG2</f>
         <v>170</v>
       </c>
-      <c r="AH2" s="28">
-        <f>MAX(Q2-R2,0)</f>
+      <c r="AI2" s="28">
+        <f>MAX(R2-S2,0)</f>
         <v>465</v>
       </c>
-      <c r="AI2" s="28">
-        <f>MAX(Q2-R2-P2,0)</f>
+      <c r="AJ2" s="28">
+        <f>MAX(R2-S2-Q2,0)</f>
         <v>115</v>
       </c>
-      <c r="AJ2" s="28">
-        <f>MAX(Q2-R2-AG2,0)</f>
+      <c r="AK2" s="28">
+        <f>MAX(R2-S2-AH2,0)</f>
         <v>295</v>
       </c>
-      <c r="AK2" s="28">
-        <f>MAX(Q2-R2-P2-AG2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL2" t="b">
-        <f>AND(AI2=0,AH2&gt;0)</f>
+      <c r="AL2" s="28">
+        <f>MAX(R2-S2-Q2-AH2,0)</f>
         <v>0</v>
       </c>
       <c r="AM2" t="b">
-        <f>AND(AJ2=0,AH2&gt;0)</f>
+        <f>AND(AJ2=0,AI2&gt;0)</f>
         <v>0</v>
       </c>
       <c r="AN2" t="b">
-        <f>AND(AK2=0,AH2&gt;0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+        <f>AND(AK2=0,AI2&gt;0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <f>AND(AL2=0,AI2&gt;0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -810,129 +819,132 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>700</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>1200</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>644</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>350</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>1765</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>1300</v>
       </c>
-      <c r="S3">
-        <f>M3*190</f>
+      <c r="T3">
+        <f>N3*190</f>
         <v>190</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2016</v>
       </c>
-      <c r="V3" s="11">
-        <f t="shared" ref="V3:V16" si="1">IF(OR($AM3=TRUE,$AN3=TRUE),$AG3,0)</f>
+      <c r="W3" s="11">
+        <f t="shared" ref="W3:W16" si="1">IF(OR($AN3=TRUE,$AO3=TRUE),$AH3,0)</f>
         <v>170</v>
       </c>
-      <c r="W3" s="1">
-        <f t="shared" ref="W3:W16" si="2">IF(AND($AL3=FALSE,$AM3=FALSE,$AN3=FALSE),$R3,0)</f>
-        <v>0</v>
-      </c>
       <c r="X3" s="1">
-        <f t="shared" ref="X3:X16" si="3">IF(OR($AL3=TRUE,$AN3=TRUE),$P3,0)</f>
+        <f t="shared" ref="X3:X16" si="2">IF(AND($AM3=FALSE,$AN3=FALSE,$AO3=FALSE),$S3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y16" si="3">IF(OR($AM3=TRUE,$AO3=TRUE),$Q3,0)</f>
         <v>350</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z4" si="4">2*364</f>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA4" si="4">2*364</f>
         <v>728</v>
       </c>
-      <c r="AA3" s="8">
-        <f t="shared" ref="AA3:AA4" si="5">0.8316*(H3+I3)</f>
+      <c r="AB3" s="8">
+        <f t="shared" ref="AB3:AB4" si="5">0.8316*(I3+J3)</f>
         <v>665.28</v>
       </c>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="24">
-        <f t="shared" ref="AC3:AC16" si="6">Z3+AA3</f>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="24">
+        <f t="shared" ref="AD3:AD16" si="6">AA3+AB3</f>
         <v>1393.28</v>
       </c>
-      <c r="AD3" s="10">
-        <f t="shared" ref="AD3:AD4" si="7">AC3+170*M3</f>
+      <c r="AE3" s="10">
+        <f t="shared" ref="AE3:AE4" si="7">AD3+170*N3</f>
         <v>1563.28</v>
       </c>
-      <c r="AE3" t="b">
-        <f t="shared" ref="AE3:AE13" si="8">AND((N3&gt;900),(O3&lt;=AD3))</f>
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF16" si="9">ROUND(MAX(O3-AC3,0)/10,0)*5</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="8">
-        <f t="shared" ref="AG3:AG13" si="10">AE3*170*M3-AF3</f>
+      <c r="AF3" t="b">
+        <f t="shared" ref="AF3:AF13" si="8">AND((O3&gt;900),(P3&lt;=AE3))</f>
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG16" si="9">ROUND(MAX(P3-AD3,0)/10,0)*5</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8">
+        <f t="shared" ref="AH3:AH13" si="10">AF3*170*N3-AG3</f>
         <v>170</v>
       </c>
-      <c r="AH3" s="28">
-        <f t="shared" ref="AH3:AH16" si="11">MAX(Q3-R3,0)</f>
+      <c r="AI3" s="28">
+        <f t="shared" ref="AI3:AI16" si="11">MAX(R3-S3,0)</f>
         <v>465</v>
       </c>
-      <c r="AI3" s="28">
-        <f t="shared" ref="AI3:AI16" si="12">MAX(Q3-R3-P3,0)</f>
+      <c r="AJ3" s="28">
+        <f t="shared" ref="AJ3:AJ16" si="12">MAX(R3-S3-Q3,0)</f>
         <v>115</v>
       </c>
-      <c r="AJ3" s="28">
-        <f t="shared" ref="AJ3:AJ16" si="13">MAX(Q3-R3-AG3,0)</f>
+      <c r="AK3" s="28">
+        <f t="shared" ref="AK3:AK16" si="13">MAX(R3-S3-AH3,0)</f>
         <v>295</v>
       </c>
-      <c r="AK3" s="28">
-        <f t="shared" ref="AK3:AK16" si="14">MAX(Q3-R3-P3-AG3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" t="b">
-        <f t="shared" ref="AL3:AL16" si="15">AND(AI3=0,AH3&gt;0)</f>
+      <c r="AL3" s="28">
+        <f t="shared" ref="AL3:AL16" si="14">MAX(R3-S3-Q3-AH3,0)</f>
         <v>0</v>
       </c>
       <c r="AM3" t="b">
-        <f t="shared" ref="AM3:AM16" si="16">AND(AJ3=0,AH3&gt;0)</f>
+        <f t="shared" ref="AM3:AM16" si="15">AND(AJ3=0,AI3&gt;0)</f>
         <v>0</v>
       </c>
       <c r="AN3" t="b">
-        <f t="shared" ref="AN3:AN16" si="17">AND(AK3=0,AH3&gt;0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AN3:AN16" si="16">AND(AK3=0,AI3&gt;0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" t="b">
+        <f t="shared" ref="AO3:AO16" si="17">AND(AL3=0,AI3&gt;0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -943,129 +955,132 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>700</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>1200</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>644</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>350</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1765</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1300</v>
       </c>
-      <c r="S4">
-        <f>M4*190</f>
+      <c r="T4">
+        <f>N4*190</f>
         <v>190</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2016</v>
       </c>
-      <c r="V4" s="11">
+      <c r="W4" s="11">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f t="shared" si="4"/>
         <v>728</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AB4" s="8">
         <f t="shared" si="5"/>
         <v>665.28</v>
       </c>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="24">
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="24">
         <f t="shared" si="6"/>
         <v>1393.28</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AE4" s="10">
         <f t="shared" si="7"/>
         <v>1563.28</v>
       </c>
-      <c r="AE4" t="b">
+      <c r="AF4" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AH4" s="8">
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="AH4" s="28">
+      <c r="AI4" s="28">
         <f t="shared" si="11"/>
         <v>465</v>
       </c>
-      <c r="AI4" s="28">
+      <c r="AJ4" s="28">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="AJ4" s="28">
+      <c r="AK4" s="28">
         <f t="shared" si="13"/>
         <v>295</v>
       </c>
-      <c r="AK4" s="28">
+      <c r="AL4" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL4" t="b">
+      <c r="AM4" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM4" t="b">
+      <c r="AN4" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN4" t="b">
+      <c r="AO4" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1076,121 +1091,124 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>40</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>400</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>80</v>
       </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="K5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
       <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <v>800</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>512</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>400</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>1170</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>700</v>
       </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2">
         <v>2013</v>
       </c>
-      <c r="V5" s="20">
+      <c r="W5" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W5" s="18">
+      <c r="X5" s="18">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="X5" s="18">
+      <c r="Y5" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2">
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2">
         <f>2*345</f>
         <v>690</v>
       </c>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="25">
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="25">
         <f t="shared" si="6"/>
         <v>690</v>
       </c>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2">
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AH5" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="29">
+      <c r="AI5" s="29">
         <f t="shared" si="11"/>
         <v>470</v>
       </c>
-      <c r="AI5" s="29">
+      <c r="AJ5" s="29">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AK5" s="29">
         <f t="shared" si="13"/>
         <v>470</v>
       </c>
-      <c r="AK5" s="28">
+      <c r="AL5" s="28">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="AL5" t="b">
+      <c r="AM5" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM5" t="b">
+      <c r="AN5" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN5" t="b">
+      <c r="AO5" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1200,121 +1218,124 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" s="3">
+        <v>3</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>40</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>400</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>80</v>
       </c>
-      <c r="J6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="K6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
       <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
         <v>800</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>512</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>400</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>1170</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>700</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3">
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3">
         <v>2013</v>
       </c>
-      <c r="V6" s="21">
+      <c r="W6" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W6" s="19">
+      <c r="X6" s="19">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="X6" s="19">
+      <c r="Y6" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <f>2*345</f>
         <v>690</v>
       </c>
-      <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="26">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="26">
         <f t="shared" si="6"/>
         <v>690</v>
       </c>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="3">
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AH6" s="17">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="30">
+      <c r="AI6" s="30">
         <f t="shared" si="11"/>
         <v>470</v>
       </c>
-      <c r="AI6" s="30">
+      <c r="AJ6" s="30">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="AJ6" s="30">
+      <c r="AK6" s="30">
         <f t="shared" si="13"/>
         <v>470</v>
       </c>
-      <c r="AK6" s="28">
+      <c r="AL6" s="28">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="AL6" t="b">
+      <c r="AM6" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM6" t="b">
+      <c r="AN6" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN6" t="b">
+      <c r="AO6" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1325,130 +1346,133 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>28</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>80</v>
       </c>
-      <c r="J7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
         <v>0.36</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
       <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
         <v>1000</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>719</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>500</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>1183.6399999999999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>164</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
         <v>2009</v>
       </c>
-      <c r="V7" s="20">
+      <c r="W7" s="20">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="W7" s="18">
+      <c r="X7" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X7" s="18">
+      <c r="Y7" s="18">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="4">
-        <f>359*(1+K7)</f>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="4">
+        <f>359*(1+L7)</f>
         <v>488.23999999999995</v>
       </c>
-      <c r="AA7" s="9">
-        <f>0.759*(H7+I7)</f>
+      <c r="AB7" s="9">
+        <f>0.759*(I7+J7)</f>
         <v>364.32</v>
       </c>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="25">
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="25">
         <f t="shared" si="6"/>
         <v>852.56</v>
       </c>
-      <c r="AD7" s="10">
-        <f>AC7+140*M7</f>
+      <c r="AE7" s="10">
+        <f>AD7+140*N7</f>
         <v>992.56</v>
       </c>
-      <c r="AE7" t="b">
-        <f>AND((N7&gt;600),(O7&lt;=AD7))</f>
-        <v>1</v>
-      </c>
-      <c r="AF7">
+      <c r="AF7" t="b">
+        <f>AND((O7&gt;600),(P7&lt;=AE7))</f>
+        <v>1</v>
+      </c>
+      <c r="AG7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AH7" s="9">
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="AH7" s="29">
+      <c r="AI7" s="29">
         <f t="shared" si="11"/>
         <v>628.63999999999987</v>
       </c>
-      <c r="AI7" s="29">
+      <c r="AJ7" s="29">
         <f t="shared" si="12"/>
         <v>128.63999999999987</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AK7" s="29">
         <f t="shared" si="13"/>
         <v>458.63999999999987</v>
       </c>
-      <c r="AK7" s="28">
+      <c r="AL7" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL7" t="b">
+      <c r="AM7" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM7" t="b">
+      <c r="AN7" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN7" t="b">
+      <c r="AO7" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1458,130 +1482,133 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>80</v>
       </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
         <v>0.36</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
       <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>719</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1183.6399999999999</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <v>555</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>164</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3">
         <v>2009</v>
       </c>
-      <c r="V8" s="21">
+      <c r="W8" s="21">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="W8" s="19">
+      <c r="X8" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="19">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="Z8" s="4">
-        <f>359*(1+K8)</f>
+      <c r="AA8" s="4">
+        <f>359*(1+L8)</f>
         <v>488.23999999999995</v>
       </c>
-      <c r="AA8" s="8">
-        <f>0.759*(H8+I8)</f>
+      <c r="AB8" s="8">
+        <f>0.759*(I8+J8)</f>
         <v>364.32</v>
       </c>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="27">
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="27">
         <f t="shared" si="6"/>
         <v>852.56</v>
       </c>
-      <c r="AD8" s="10">
-        <f>AC8+140*M8</f>
+      <c r="AE8" s="10">
+        <f>AD8+140*N8</f>
         <v>992.56</v>
       </c>
-      <c r="AE8" s="3" t="b">
-        <f>AND((N8&gt;600),(O8&lt;=AD8))</f>
-        <v>1</v>
-      </c>
-      <c r="AF8" s="3">
+      <c r="AF8" s="3" t="b">
+        <f>AND((O8&gt;600),(P8&lt;=AE8))</f>
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AH8" s="8">
         <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="AH8" s="31">
+      <c r="AI8" s="31">
         <f t="shared" si="11"/>
         <v>628.63999999999987</v>
       </c>
-      <c r="AI8" s="31">
+      <c r="AJ8" s="31">
         <f t="shared" si="12"/>
         <v>128.63999999999987</v>
       </c>
-      <c r="AJ8" s="31">
+      <c r="AK8" s="31">
         <f t="shared" si="13"/>
         <v>458.63999999999987</v>
       </c>
-      <c r="AK8" s="28">
+      <c r="AL8" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL8" t="b">
+      <c r="AM8" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM8" t="b">
+      <c r="AN8" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN8" t="b">
+      <c r="AO8" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1592,131 +1619,134 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>33</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>850</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>120</v>
       </c>
-      <c r="J9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="K9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>3</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>2000</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>1500</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>650</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>2281</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>462</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <f>3*154</f>
         <v>462</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
         <v>2006</v>
       </c>
-      <c r="V9" s="20">
+      <c r="W9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W9" s="18">
+      <c r="X9" s="18">
         <f t="shared" si="2"/>
         <v>462</v>
       </c>
-      <c r="X9" s="18">
+      <c r="Y9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2">
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2">
         <f>345*0.9*2</f>
         <v>621</v>
       </c>
-      <c r="AA9" s="9">
-        <f>0.6212*(H9+I9)</f>
+      <c r="AB9" s="9">
+        <f>0.6212*(I9+J9)</f>
         <v>602.56399999999996</v>
       </c>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="25">
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="25">
         <f t="shared" si="6"/>
         <v>1223.5639999999999</v>
       </c>
-      <c r="AD9" s="14">
-        <f t="shared" ref="AD9:AD13" si="18">AC9+140*M9</f>
+      <c r="AE9" s="14">
+        <f t="shared" ref="AE9:AE13" si="18">AD9+140*N9</f>
         <v>1643.5639999999999</v>
       </c>
-      <c r="AE9" s="2" t="b">
+      <c r="AF9" s="2" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AG9" s="2">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="AG9" s="9">
-        <f>AE9*170*M9-AF9</f>
+      <c r="AH9" s="9">
+        <f>AF9*170*N9-AG9</f>
         <v>370</v>
       </c>
-      <c r="AH9" s="32">
+      <c r="AI9" s="32">
         <f t="shared" si="11"/>
         <v>1819</v>
       </c>
-      <c r="AI9" s="29">
+      <c r="AJ9" s="29">
         <f t="shared" si="12"/>
         <v>1169</v>
       </c>
-      <c r="AJ9" s="32">
+      <c r="AK9" s="32">
         <f t="shared" si="13"/>
         <v>1449</v>
       </c>
-      <c r="AK9" s="28">
+      <c r="AL9" s="28">
         <f t="shared" si="14"/>
         <v>799</v>
       </c>
-      <c r="AL9" t="b">
+      <c r="AM9" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM9" t="b">
+      <c r="AN9" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN9" t="b">
+      <c r="AO9" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1726,131 +1756,134 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>30</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>850</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>120</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>650</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2281</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>462</v>
       </c>
-      <c r="S10" s="3">
-        <f t="shared" ref="S10:S13" si="19">3*154</f>
+      <c r="T10" s="3">
+        <f t="shared" ref="T10:T13" si="19">3*154</f>
         <v>462</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="4">
+      <c r="U10" s="3"/>
+      <c r="V10" s="4">
         <v>2006</v>
       </c>
-      <c r="V10" s="11">
+      <c r="W10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W10" s="19">
+      <c r="X10" s="19">
         <f t="shared" si="2"/>
         <v>462</v>
       </c>
-      <c r="X10" s="19">
+      <c r="Y10" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="3">
-        <f t="shared" ref="Z10:Z13" si="20">345*0.9*2</f>
+      <c r="AA10" s="3">
+        <f t="shared" ref="AA10:AA13" si="20">345*0.9*2</f>
         <v>621</v>
       </c>
-      <c r="AA10" s="8">
-        <f t="shared" ref="AA10:AA13" si="21">0.6212*(H10+I10)</f>
+      <c r="AB10" s="8">
+        <f t="shared" ref="AB10:AB13" si="21">0.6212*(I10+J10)</f>
         <v>602.56399999999996</v>
       </c>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="27">
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="27">
         <f t="shared" si="6"/>
         <v>1223.5639999999999</v>
       </c>
-      <c r="AD10" s="15">
+      <c r="AE10" s="15">
         <f t="shared" si="18"/>
         <v>1643.5639999999999</v>
       </c>
-      <c r="AE10" s="4" t="b">
+      <c r="AF10" s="4" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AG10" s="4">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AH10" s="8">
         <f t="shared" si="10"/>
         <v>370</v>
       </c>
-      <c r="AH10" s="33">
+      <c r="AI10" s="33">
         <f t="shared" si="11"/>
         <v>1819</v>
       </c>
-      <c r="AI10" s="31">
+      <c r="AJ10" s="31">
         <f t="shared" si="12"/>
         <v>1169</v>
       </c>
-      <c r="AJ10" s="33">
+      <c r="AK10" s="33">
         <f t="shared" si="13"/>
         <v>1449</v>
       </c>
-      <c r="AK10" s="28">
+      <c r="AL10" s="28">
         <f t="shared" si="14"/>
         <v>799</v>
       </c>
-      <c r="AL10" t="b">
+      <c r="AM10" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM10" t="b">
+      <c r="AN10" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN10" t="b">
+      <c r="AO10" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1860,131 +1893,134 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
         <v>12</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>850</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>120</v>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>3</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>2000</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>1500</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>650</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>2281</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>462</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <f t="shared" si="19"/>
         <v>462</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="4">
+      <c r="U11" s="3"/>
+      <c r="V11" s="4">
         <v>2006</v>
       </c>
-      <c r="V11" s="11">
+      <c r="W11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W11" s="19">
+      <c r="X11" s="19">
         <f t="shared" si="2"/>
         <v>462</v>
       </c>
-      <c r="X11" s="19">
+      <c r="Y11" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <f t="shared" si="20"/>
         <v>621</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AB11" s="8">
         <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="27">
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="27">
         <f t="shared" si="6"/>
         <v>1223.5639999999999</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AE11" s="10">
         <f t="shared" si="18"/>
         <v>1643.5639999999999</v>
       </c>
-      <c r="AE11" t="b">
+      <c r="AF11" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AH11" s="8">
         <f t="shared" si="10"/>
         <v>370</v>
       </c>
-      <c r="AH11" s="28">
+      <c r="AI11" s="28">
         <f t="shared" si="11"/>
         <v>1819</v>
       </c>
-      <c r="AI11" s="31">
+      <c r="AJ11" s="31">
         <f t="shared" si="12"/>
         <v>1169</v>
       </c>
-      <c r="AJ11" s="28">
+      <c r="AK11" s="28">
         <f t="shared" si="13"/>
         <v>1449</v>
       </c>
-      <c r="AK11" s="28">
+      <c r="AL11" s="28">
         <f t="shared" si="14"/>
         <v>799</v>
       </c>
-      <c r="AL11" t="b">
+      <c r="AM11" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM11" t="b">
+      <c r="AN11" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN11" t="b">
+      <c r="AO11" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1994,132 +2030,135 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
         <v>10</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>850</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>120</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>650</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2281</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>462</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <f t="shared" si="19"/>
         <v>462</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="4">
+      <c r="U12" s="3"/>
+      <c r="V12" s="4">
         <v>2006</v>
       </c>
-      <c r="V12" s="11">
+      <c r="W12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W12" s="19">
+      <c r="X12" s="19">
         <f t="shared" si="2"/>
         <v>462</v>
       </c>
-      <c r="X12" s="19">
+      <c r="Y12" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="3">
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="3">
         <f t="shared" si="20"/>
         <v>621</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AB12" s="8">
         <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="27">
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="27">
         <f t="shared" si="6"/>
         <v>1223.5639999999999</v>
       </c>
-      <c r="AD12" s="10">
+      <c r="AE12" s="10">
         <f t="shared" si="18"/>
         <v>1643.5639999999999</v>
       </c>
-      <c r="AE12" t="b">
+      <c r="AF12" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AH12" s="8">
         <f t="shared" si="10"/>
         <v>370</v>
       </c>
-      <c r="AH12" s="28">
+      <c r="AI12" s="28">
         <f t="shared" si="11"/>
         <v>1819</v>
       </c>
-      <c r="AI12" s="31">
+      <c r="AJ12" s="31">
         <f t="shared" si="12"/>
         <v>1169</v>
       </c>
-      <c r="AJ12" s="28">
+      <c r="AK12" s="28">
         <f t="shared" si="13"/>
         <v>1449</v>
       </c>
-      <c r="AK12" s="28">
+      <c r="AL12" s="28">
         <f t="shared" si="14"/>
         <v>799</v>
       </c>
-      <c r="AL12" t="b">
+      <c r="AM12" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM12" t="b">
+      <c r="AN12" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN12" t="b">
+      <c r="AO12" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2129,132 +2168,135 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="G13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>850</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>120</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>3</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>2000</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>1500</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>650</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>2281</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>462</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <f t="shared" si="19"/>
         <v>462</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="4">
+      <c r="U13" s="3"/>
+      <c r="V13" s="4">
         <v>2006</v>
       </c>
-      <c r="V13" s="11">
+      <c r="W13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W13" s="19">
+      <c r="X13" s="19">
         <f t="shared" si="2"/>
         <v>462</v>
       </c>
-      <c r="X13" s="19">
+      <c r="Y13" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="3">
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="3">
         <f t="shared" si="20"/>
         <v>621</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AB13" s="8">
         <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="27">
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="27">
         <f t="shared" si="6"/>
         <v>1223.5639999999999</v>
       </c>
-      <c r="AD13" s="10">
+      <c r="AE13" s="10">
         <f t="shared" si="18"/>
         <v>1643.5639999999999</v>
       </c>
-      <c r="AE13" t="b">
+      <c r="AF13" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AH13" s="8">
         <f t="shared" si="10"/>
         <v>370</v>
       </c>
-      <c r="AH13" s="28">
+      <c r="AI13" s="28">
         <f t="shared" si="11"/>
         <v>1819</v>
       </c>
-      <c r="AI13" s="31">
+      <c r="AJ13" s="31">
         <f t="shared" si="12"/>
         <v>1169</v>
       </c>
-      <c r="AJ13" s="28">
+      <c r="AK13" s="28">
         <f t="shared" si="13"/>
         <v>1449</v>
       </c>
-      <c r="AK13" s="28">
+      <c r="AL13" s="28">
         <f t="shared" si="14"/>
         <v>799</v>
       </c>
-      <c r="AL13" t="b">
+      <c r="AM13" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM13" t="b">
+      <c r="AN13" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN13" t="b">
+      <c r="AO13" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2268,116 +2310,119 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="G14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
         <v>30</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>720</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>110</v>
       </c>
-      <c r="J14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="K14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
       <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
         <v>2500</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>1578</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>400</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>1703</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="2">
         <v>1578</v>
       </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2">
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
         <v>2011</v>
       </c>
-      <c r="V14" s="18">
+      <c r="W14" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W14" s="18">
+      <c r="X14" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X14" s="18">
+      <c r="Y14" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7">
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7">
         <f>3*291</f>
         <v>873</v>
       </c>
-      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="25">
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="25">
         <f t="shared" si="6"/>
         <v>873</v>
       </c>
-      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="4">
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="4">
         <f t="shared" si="9"/>
         <v>355</v>
       </c>
-      <c r="AG14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="28">
+      <c r="AH14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="28">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="AI14" s="28">
+      <c r="AJ14" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="28">
+      <c r="AK14" s="28">
         <f t="shared" si="13"/>
         <v>125</v>
       </c>
-      <c r="AK14" s="28">
+      <c r="AL14" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL14" t="b">
+      <c r="AM14" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="AM14" t="b">
+      <c r="AN14" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN14" t="b">
+      <c r="AO14" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -2391,112 +2436,115 @@
         <v>1</v>
       </c>
       <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>40</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>720</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>110</v>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1578</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1703</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1578</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="2">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="V15" s="2">
         <v>2011</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Y15" s="3"/>
-      <c r="Z15">
-        <f t="shared" ref="Z15:Z16" si="22">3*291</f>
+      <c r="Z15" s="3"/>
+      <c r="AA15">
+        <f t="shared" ref="AA15:AA16" si="22">3*291</f>
         <v>873</v>
       </c>
-      <c r="AC15" s="24">
+      <c r="AD15" s="24">
         <f t="shared" si="6"/>
         <v>873</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <f t="shared" si="9"/>
         <v>355</v>
       </c>
-      <c r="AG15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="28">
+      <c r="AH15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="28">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="AI15" s="28">
+      <c r="AJ15" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="28">
+      <c r="AK15" s="28">
         <f t="shared" si="13"/>
         <v>125</v>
       </c>
-      <c r="AK15" s="28">
+      <c r="AL15" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL15" t="b">
+      <c r="AM15" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="AM15" t="b">
+      <c r="AN15" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN15" t="b">
+      <c r="AO15" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -2510,231 +2558,234 @@
         <v>1</v>
       </c>
       <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>35</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>720</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>110</v>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
         <v>2500</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>1578</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <v>400</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1703</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>1578</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="2">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="2">
         <v>2011</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W16" s="19">
+      <c r="X16" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16">
+      <c r="Z16" s="3"/>
+      <c r="AA16">
         <f t="shared" si="22"/>
         <v>873</v>
       </c>
-      <c r="AC16" s="24">
+      <c r="AD16" s="24">
         <f t="shared" si="6"/>
         <v>873</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <f t="shared" si="9"/>
         <v>355</v>
       </c>
-      <c r="AG16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="28">
+      <c r="AH16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="28">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="AI16" s="28">
+      <c r="AJ16" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="28">
+      <c r="AK16" s="28">
         <f t="shared" si="13"/>
         <v>125</v>
       </c>
-      <c r="AK16" s="28">
+      <c r="AL16" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL16" t="b">
+      <c r="AM16" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="AM16" t="b">
+      <c r="AN16" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN16" t="b">
+      <c r="AO16" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="V17" s="1"/>
+    <row r="17" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="22"/>
-      <c r="AC17" s="24"/>
-      <c r="AG17" s="8"/>
-    </row>
-    <row r="18" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="Y18" s="22"/>
-      <c r="AC18" s="24"/>
-      <c r="AG18" s="8"/>
-    </row>
-    <row r="19" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="Y19" s="22"/>
-      <c r="AC19" s="24"/>
-      <c r="AG19" s="8"/>
-    </row>
-    <row r="20" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="Y20" s="22"/>
-      <c r="AC20" s="24"/>
-      <c r="AG20" s="8"/>
-    </row>
-    <row r="21" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="Y21" s="22"/>
-      <c r="AC21" s="8"/>
-      <c r="AG21" s="8"/>
-    </row>
-    <row r="22" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="Y22" s="22"/>
-      <c r="AC22" s="8"/>
-      <c r="AG22" s="8"/>
-    </row>
-    <row r="23" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC23" s="8"/>
-      <c r="AG23" s="8"/>
-    </row>
-    <row r="24" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC24" s="8"/>
-      <c r="AG24" s="8"/>
-    </row>
-    <row r="25" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC25" s="8"/>
-      <c r="AG25" s="8"/>
-    </row>
-    <row r="26" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC26" s="8"/>
-      <c r="AF26" s="8"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="22"/>
+      <c r="AD17" s="24"/>
+      <c r="AH17" s="8"/>
+    </row>
+    <row r="18" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="Z18" s="22"/>
+      <c r="AD18" s="24"/>
+      <c r="AH18" s="8"/>
+    </row>
+    <row r="19" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="Z19" s="22"/>
+      <c r="AD19" s="24"/>
+      <c r="AH19" s="8"/>
+    </row>
+    <row r="20" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="Z20" s="22"/>
+      <c r="AD20" s="24"/>
+      <c r="AH20" s="8"/>
+    </row>
+    <row r="21" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="Z21" s="22"/>
+      <c r="AD21" s="8"/>
+      <c r="AH21" s="8"/>
+    </row>
+    <row r="22" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="Z22" s="22"/>
+      <c r="AD22" s="8"/>
+      <c r="AH22" s="8"/>
+    </row>
+    <row r="23" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD23" s="8"/>
+      <c r="AH23" s="8"/>
+    </row>
+    <row r="24" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD24" s="8"/>
+      <c r="AH24" s="8"/>
+    </row>
+    <row r="25" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD25" s="8"/>
+      <c r="AH25" s="8"/>
+    </row>
+    <row r="26" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD26" s="8"/>
       <c r="AG26" s="8"/>
-    </row>
-    <row r="27" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC27" s="8"/>
-      <c r="AF27" s="8"/>
+      <c r="AH26" s="8"/>
+    </row>
+    <row r="27" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD27" s="8"/>
       <c r="AG27" s="8"/>
-    </row>
-    <row r="28" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC28" s="8"/>
-      <c r="AF28" s="8"/>
+      <c r="AH27" s="8"/>
+    </row>
+    <row r="28" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD28" s="8"/>
       <c r="AG28" s="8"/>
-    </row>
-    <row r="29" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC29" s="8"/>
-      <c r="AF29" s="8"/>
+      <c r="AH28" s="8"/>
+    </row>
+    <row r="29" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD29" s="8"/>
       <c r="AG29" s="8"/>
-    </row>
-    <row r="30" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC30" s="8"/>
-      <c r="AF30" s="8"/>
-    </row>
-    <row r="31" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC31" s="8"/>
-      <c r="AF31" s="8"/>
-    </row>
-    <row r="32" spans="22:33" x14ac:dyDescent="0.25">
-      <c r="AC32" s="8"/>
-      <c r="AF32" s="8"/>
-    </row>
-    <row r="33" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC33" s="8"/>
-      <c r="AF33" s="8"/>
-    </row>
-    <row r="34" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC34" s="8"/>
-      <c r="AF34" s="8"/>
-    </row>
-    <row r="35" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC35" s="8"/>
-      <c r="AF35" s="8"/>
-    </row>
-    <row r="36" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC36" s="8"/>
-      <c r="AF36" s="8"/>
-    </row>
-    <row r="37" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC37" s="8"/>
-      <c r="AF37" s="8"/>
-    </row>
-    <row r="38" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC38" s="8"/>
-      <c r="AF38" s="8"/>
-    </row>
-    <row r="39" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC39" s="8"/>
-      <c r="AF39" s="8"/>
-    </row>
-    <row r="40" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC40" s="8"/>
-      <c r="AF40" s="8"/>
-    </row>
-    <row r="41" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC41" s="8"/>
-      <c r="AF41" s="8"/>
-    </row>
-    <row r="42" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC42" s="8"/>
-      <c r="AF42" s="8"/>
-    </row>
-    <row r="43" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC43" s="8"/>
-      <c r="AF43" s="8"/>
+      <c r="AH29" s="8"/>
+    </row>
+    <row r="30" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD30" s="8"/>
+      <c r="AG30" s="8"/>
+    </row>
+    <row r="31" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD31" s="8"/>
+      <c r="AG31" s="8"/>
+    </row>
+    <row r="32" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AD32" s="8"/>
+      <c r="AG32" s="8"/>
+    </row>
+    <row r="33" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD33" s="8"/>
+      <c r="AG33" s="8"/>
+    </row>
+    <row r="34" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD34" s="8"/>
+      <c r="AG34" s="8"/>
+    </row>
+    <row r="35" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD35" s="8"/>
+      <c r="AG35" s="8"/>
+    </row>
+    <row r="36" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD36" s="8"/>
+      <c r="AG36" s="8"/>
+    </row>
+    <row r="37" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD37" s="8"/>
+      <c r="AG37" s="8"/>
+    </row>
+    <row r="38" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD38" s="8"/>
+      <c r="AG38" s="8"/>
+    </row>
+    <row r="39" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD39" s="8"/>
+      <c r="AG39" s="8"/>
+    </row>
+    <row r="40" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD40" s="8"/>
+      <c r="AG40" s="8"/>
+    </row>
+    <row r="41" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD41" s="8"/>
+      <c r="AG41" s="8"/>
+    </row>
+    <row r="42" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD42" s="8"/>
+      <c r="AG42" s="8"/>
+    </row>
+    <row r="43" spans="30:33" x14ac:dyDescent="0.25">
+      <c r="AD43" s="8"/>
+      <c r="AG43" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/test_data/test_dfs_kiz.xlsx
+++ b/tests/test_data/test_dfs_kiz.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +740,10 @@
       </c>
       <c r="W2" s="1">
         <f>IF(OR($AN2=TRUE,$AO2=TRUE),$AH2,0)</f>
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="X2" s="1">
-        <f>IF(AND($AM2=FALSE,$AN2=FALSE,$AO2=FALSE),$S2,0)</f>
+        <f>IF(AND($AM2=FALSE,$AN2=FALSE,$AO2=FALSE),$AI2,0)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="1">
@@ -776,8 +776,8 @@
         <v>0</v>
       </c>
       <c r="AH2" s="8">
-        <f>AF2*170*N2-AG2</f>
-        <v>170</v>
+        <f>AF2*140*N2-AG2</f>
+        <v>140</v>
       </c>
       <c r="AI2" s="28">
         <f>MAX(R2-S2,0)</f>
@@ -789,7 +789,7 @@
       </c>
       <c r="AK2" s="28">
         <f>MAX(R2-S2-AH2,0)</f>
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="AL2" s="28">
         <f>MAX(R2-S2-Q2-AH2,0)</f>
@@ -876,10 +876,10 @@
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W16" si="1">IF(OR($AN3=TRUE,$AO3=TRUE),$AH3,0)</f>
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" ref="X3:X16" si="2">IF(AND($AM3=FALSE,$AN3=FALSE,$AO3=FALSE),$S3,0)</f>
+        <f t="shared" ref="X3:X16" si="2">IF(AND($AM3=FALSE,$AN3=FALSE,$AO3=FALSE),$AI3,0)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="1">
@@ -912,35 +912,35 @@
         <v>0</v>
       </c>
       <c r="AH3" s="8">
-        <f t="shared" ref="AH3:AH13" si="10">AF3*170*N3-AG3</f>
-        <v>170</v>
+        <f>AF3*140*N3-AG3</f>
+        <v>140</v>
       </c>
       <c r="AI3" s="28">
-        <f t="shared" ref="AI3:AI16" si="11">MAX(R3-S3,0)</f>
+        <f t="shared" ref="AI3:AI16" si="10">MAX(R3-S3,0)</f>
         <v>465</v>
       </c>
       <c r="AJ3" s="28">
-        <f t="shared" ref="AJ3:AJ16" si="12">MAX(R3-S3-Q3,0)</f>
+        <f t="shared" ref="AJ3:AJ16" si="11">MAX(R3-S3-Q3,0)</f>
         <v>115</v>
       </c>
       <c r="AK3" s="28">
-        <f t="shared" ref="AK3:AK16" si="13">MAX(R3-S3-AH3,0)</f>
-        <v>295</v>
+        <f t="shared" ref="AK3:AK16" si="12">MAX(R3-S3-AH3,0)</f>
+        <v>325</v>
       </c>
       <c r="AL3" s="28">
-        <f t="shared" ref="AL3:AL16" si="14">MAX(R3-S3-Q3-AH3,0)</f>
+        <f t="shared" ref="AL3:AL16" si="13">MAX(R3-S3-Q3-AH3,0)</f>
         <v>0</v>
       </c>
       <c r="AM3" t="b">
-        <f t="shared" ref="AM3:AM16" si="15">AND(AJ3=0,AI3&gt;0)</f>
+        <f t="shared" ref="AM3:AM16" si="14">AND(AJ3=0,AI3&gt;0)</f>
         <v>0</v>
       </c>
       <c r="AN3" t="b">
-        <f t="shared" ref="AN3:AN16" si="16">AND(AK3=0,AI3&gt;0)</f>
+        <f t="shared" ref="AN3:AN16" si="15">AND(AK3=0,AI3&gt;0)</f>
         <v>0</v>
       </c>
       <c r="AO3" t="b">
-        <f t="shared" ref="AO3:AO16" si="17">AND(AL3=0,AI3&gt;0)</f>
+        <f t="shared" ref="AO3:AO16" si="16">AND(AL3=0,AI3&gt;0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="W4" s="11">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="X4" s="1">
         <f t="shared" si="2"/>
@@ -1048,35 +1048,35 @@
         <v>0</v>
       </c>
       <c r="AH4" s="8">
+        <f>AF4*140*N4-AG4</f>
+        <v>140</v>
+      </c>
+      <c r="AI4" s="28">
         <f t="shared" si="10"/>
-        <v>170</v>
-      </c>
-      <c r="AI4" s="28">
+        <v>465</v>
+      </c>
+      <c r="AJ4" s="28">
         <f t="shared" si="11"/>
-        <v>465</v>
-      </c>
-      <c r="AJ4" s="28">
+        <v>115</v>
+      </c>
+      <c r="AK4" s="28">
         <f t="shared" si="12"/>
-        <v>115</v>
-      </c>
-      <c r="AK4" s="28">
+        <v>325</v>
+      </c>
+      <c r="AL4" s="28">
         <f t="shared" si="13"/>
-        <v>295</v>
-      </c>
-      <c r="AL4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM4" t="b">
+      <c r="AN4" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN4" t="b">
+      <c r="AO4" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO4" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -1150,9 +1150,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="1">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>470</v>
       </c>
       <c r="Y5" s="18">
         <f t="shared" si="3"/>
@@ -1176,35 +1176,35 @@
         <v>0</v>
       </c>
       <c r="AH5" s="9">
+        <f>AF5*140*N5-AG5</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="29">
+        <v>470</v>
+      </c>
+      <c r="AJ5" s="29">
         <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="AK5" s="29">
+        <f t="shared" si="12"/>
         <v>470</v>
       </c>
-      <c r="AJ5" s="29">
-        <f t="shared" si="12"/>
+      <c r="AL5" s="28">
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="AK5" s="29">
-        <f t="shared" si="13"/>
-        <v>470</v>
-      </c>
-      <c r="AL5" s="28">
+      <c r="AM5" t="b">
         <f t="shared" si="14"/>
-        <v>70</v>
-      </c>
-      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN5" t="b">
+      <c r="AO5" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO5" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1278,9 +1278,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="1">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>470</v>
       </c>
       <c r="Y6" s="19">
         <f t="shared" si="3"/>
@@ -1303,35 +1303,35 @@
         <v>0</v>
       </c>
       <c r="AH6" s="17">
+        <f>AF6*140*N6-AG6</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="30">
+        <v>470</v>
+      </c>
+      <c r="AJ6" s="30">
         <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="AK6" s="30">
+        <f t="shared" si="12"/>
         <v>470</v>
       </c>
-      <c r="AJ6" s="30">
-        <f t="shared" si="12"/>
+      <c r="AL6" s="28">
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="AK6" s="30">
-        <f t="shared" si="13"/>
-        <v>470</v>
-      </c>
-      <c r="AL6" s="28">
+      <c r="AM6" t="b">
         <f t="shared" si="14"/>
-        <v>70</v>
-      </c>
-      <c r="AM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN6" t="b">
+      <c r="AO6" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO6" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1403,9 +1403,9 @@
       </c>
       <c r="W7" s="20">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="X7" s="18">
+        <v>140</v>
+      </c>
+      <c r="X7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1440,35 +1440,35 @@
         <v>0</v>
       </c>
       <c r="AH7" s="9">
+        <f>AF7*140*N7-AG7</f>
+        <v>140</v>
+      </c>
+      <c r="AI7" s="29">
         <f t="shared" si="10"/>
-        <v>170</v>
-      </c>
-      <c r="AI7" s="29">
+        <v>628.63999999999987</v>
+      </c>
+      <c r="AJ7" s="29">
         <f t="shared" si="11"/>
-        <v>628.63999999999987</v>
-      </c>
-      <c r="AJ7" s="29">
+        <v>128.63999999999987</v>
+      </c>
+      <c r="AK7" s="29">
         <f t="shared" si="12"/>
-        <v>128.63999999999987</v>
-      </c>
-      <c r="AK7" s="29">
+        <v>488.63999999999987</v>
+      </c>
+      <c r="AL7" s="28">
         <f t="shared" si="13"/>
-        <v>458.63999999999987</v>
-      </c>
-      <c r="AL7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM7" t="b">
+      <c r="AN7" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN7" t="b">
+      <c r="AO7" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO7" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -1540,9 +1540,9 @@
       </c>
       <c r="W8" s="21">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="X8" s="19">
+        <v>140</v>
+      </c>
+      <c r="X8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1576,35 +1576,35 @@
         <v>0</v>
       </c>
       <c r="AH8" s="8">
+        <f>AF8*140*N8-AG8</f>
+        <v>140</v>
+      </c>
+      <c r="AI8" s="31">
         <f t="shared" si="10"/>
-        <v>170</v>
-      </c>
-      <c r="AI8" s="31">
+        <v>628.63999999999987</v>
+      </c>
+      <c r="AJ8" s="31">
         <f t="shared" si="11"/>
-        <v>628.63999999999987</v>
-      </c>
-      <c r="AJ8" s="31">
+        <v>128.63999999999987</v>
+      </c>
+      <c r="AK8" s="31">
         <f t="shared" si="12"/>
-        <v>128.63999999999987</v>
-      </c>
-      <c r="AK8" s="31">
+        <v>488.63999999999987</v>
+      </c>
+      <c r="AL8" s="28">
         <f t="shared" si="13"/>
-        <v>458.63999999999987</v>
-      </c>
-      <c r="AL8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM8" t="b">
+      <c r="AN8" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN8" t="b">
+      <c r="AO8" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO8" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -1679,9 +1679,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="1">
         <f t="shared" si="2"/>
-        <v>462</v>
+        <v>1819</v>
       </c>
       <c r="Y9" s="18">
         <f t="shared" si="3"/>
@@ -1702,7 +1702,7 @@
         <v>1223.5639999999999</v>
       </c>
       <c r="AE9" s="14">
-        <f t="shared" ref="AE9:AE13" si="18">AD9+140*N9</f>
+        <f t="shared" ref="AE9:AE13" si="17">AD9+140*N9</f>
         <v>1643.5639999999999</v>
       </c>
       <c r="AF9" s="2" t="b">
@@ -1714,35 +1714,35 @@
         <v>140</v>
       </c>
       <c r="AH9" s="9">
-        <f>AF9*170*N9-AG9</f>
-        <v>370</v>
+        <f>AF9*140*N9-AG9</f>
+        <v>280</v>
       </c>
       <c r="AI9" s="32">
+        <f t="shared" si="10"/>
+        <v>1819</v>
+      </c>
+      <c r="AJ9" s="29">
         <f t="shared" si="11"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ9" s="29">
+        <v>1169</v>
+      </c>
+      <c r="AK9" s="32">
         <f t="shared" si="12"/>
-        <v>1169</v>
-      </c>
-      <c r="AK9" s="32">
+        <v>1539</v>
+      </c>
+      <c r="AL9" s="28">
         <f t="shared" si="13"/>
-        <v>1449</v>
-      </c>
-      <c r="AL9" s="28">
+        <v>889</v>
+      </c>
+      <c r="AM9" t="b">
         <f t="shared" si="14"/>
-        <v>799</v>
-      </c>
-      <c r="AM9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN9" t="b">
+      <c r="AO9" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
         <v>462</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" ref="T10:T13" si="19">3*154</f>
+        <f t="shared" ref="T10:T13" si="18">3*154</f>
         <v>462</v>
       </c>
       <c r="U10" s="3"/>
@@ -1817,20 +1817,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="1">
         <f t="shared" si="2"/>
-        <v>462</v>
+        <v>1819</v>
       </c>
       <c r="Y10" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" ref="AA10:AA13" si="20">345*0.9*2</f>
+        <f t="shared" ref="AA10:AA13" si="19">345*0.9*2</f>
         <v>621</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" ref="AB10:AB13" si="21">0.6212*(I10+J10)</f>
+        <f t="shared" ref="AB10:AB13" si="20">0.6212*(I10+J10)</f>
         <v>602.56399999999996</v>
       </c>
       <c r="AC10" s="8"/>
@@ -1839,7 +1839,7 @@
         <v>1223.5639999999999</v>
       </c>
       <c r="AE10" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1643.5639999999999</v>
       </c>
       <c r="AF10" s="4" t="b">
@@ -1851,35 +1851,35 @@
         <v>140</v>
       </c>
       <c r="AH10" s="8">
+        <f>AF10*140*N10-AG10</f>
+        <v>280</v>
+      </c>
+      <c r="AI10" s="33">
         <f t="shared" si="10"/>
-        <v>370</v>
-      </c>
-      <c r="AI10" s="33">
+        <v>1819</v>
+      </c>
+      <c r="AJ10" s="31">
         <f t="shared" si="11"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ10" s="31">
+        <v>1169</v>
+      </c>
+      <c r="AK10" s="33">
         <f t="shared" si="12"/>
-        <v>1169</v>
-      </c>
-      <c r="AK10" s="33">
+        <v>1539</v>
+      </c>
+      <c r="AL10" s="28">
         <f t="shared" si="13"/>
-        <v>1449</v>
-      </c>
-      <c r="AL10" s="28">
+        <v>889</v>
+      </c>
+      <c r="AM10" t="b">
         <f t="shared" si="14"/>
-        <v>799</v>
-      </c>
-      <c r="AM10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN10" t="b">
+      <c r="AO10" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO10" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
         <v>462</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>462</v>
       </c>
       <c r="U11" s="3"/>
@@ -1954,20 +1954,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="1">
         <f t="shared" si="2"/>
-        <v>462</v>
+        <v>1819</v>
       </c>
       <c r="Y11" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA11" s="3">
+        <f t="shared" si="19"/>
+        <v>621</v>
+      </c>
+      <c r="AB11" s="8">
         <f t="shared" si="20"/>
-        <v>621</v>
-      </c>
-      <c r="AB11" s="8">
-        <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
       <c r="AC11" s="8"/>
@@ -1976,7 +1976,7 @@
         <v>1223.5639999999999</v>
       </c>
       <c r="AE11" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1643.5639999999999</v>
       </c>
       <c r="AF11" t="b">
@@ -1988,35 +1988,35 @@
         <v>140</v>
       </c>
       <c r="AH11" s="8">
+        <f>AF11*140*N11-AG11</f>
+        <v>280</v>
+      </c>
+      <c r="AI11" s="28">
         <f t="shared" si="10"/>
-        <v>370</v>
-      </c>
-      <c r="AI11" s="28">
+        <v>1819</v>
+      </c>
+      <c r="AJ11" s="31">
         <f t="shared" si="11"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ11" s="31">
+        <v>1169</v>
+      </c>
+      <c r="AK11" s="28">
         <f t="shared" si="12"/>
-        <v>1169</v>
-      </c>
-      <c r="AK11" s="28">
+        <v>1539</v>
+      </c>
+      <c r="AL11" s="28">
         <f t="shared" si="13"/>
-        <v>1449</v>
-      </c>
-      <c r="AL11" s="28">
+        <v>889</v>
+      </c>
+      <c r="AM11" t="b">
         <f t="shared" si="14"/>
-        <v>799</v>
-      </c>
-      <c r="AM11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN11" t="b">
+      <c r="AO11" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>462</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>462</v>
       </c>
       <c r="U12" s="3"/>
@@ -2091,9 +2091,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X12" s="1">
         <f t="shared" si="2"/>
-        <v>462</v>
+        <v>1819</v>
       </c>
       <c r="Y12" s="19">
         <f t="shared" si="3"/>
@@ -2101,11 +2101,11 @@
       </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="3">
+        <f t="shared" si="19"/>
+        <v>621</v>
+      </c>
+      <c r="AB12" s="8">
         <f t="shared" si="20"/>
-        <v>621</v>
-      </c>
-      <c r="AB12" s="8">
-        <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
       <c r="AC12" s="8"/>
@@ -2114,7 +2114,7 @@
         <v>1223.5639999999999</v>
       </c>
       <c r="AE12" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1643.5639999999999</v>
       </c>
       <c r="AF12" t="b">
@@ -2126,35 +2126,35 @@
         <v>140</v>
       </c>
       <c r="AH12" s="8">
+        <f>AF12*140*N12-AG12</f>
+        <v>280</v>
+      </c>
+      <c r="AI12" s="28">
         <f t="shared" si="10"/>
-        <v>370</v>
-      </c>
-      <c r="AI12" s="28">
+        <v>1819</v>
+      </c>
+      <c r="AJ12" s="31">
         <f t="shared" si="11"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ12" s="31">
+        <v>1169</v>
+      </c>
+      <c r="AK12" s="28">
         <f t="shared" si="12"/>
-        <v>1169</v>
-      </c>
-      <c r="AK12" s="28">
+        <v>1539</v>
+      </c>
+      <c r="AL12" s="28">
         <f t="shared" si="13"/>
-        <v>1449</v>
-      </c>
-      <c r="AL12" s="28">
+        <v>889</v>
+      </c>
+      <c r="AM12" t="b">
         <f t="shared" si="14"/>
-        <v>799</v>
-      </c>
-      <c r="AM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN12" t="b">
+      <c r="AO12" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
         <v>462</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>462</v>
       </c>
       <c r="U13" s="3"/>
@@ -2229,9 +2229,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X13" s="19">
+      <c r="X13" s="1">
         <f t="shared" si="2"/>
-        <v>462</v>
+        <v>1819</v>
       </c>
       <c r="Y13" s="19">
         <f t="shared" si="3"/>
@@ -2239,11 +2239,11 @@
       </c>
       <c r="Z13" s="22"/>
       <c r="AA13" s="3">
+        <f t="shared" si="19"/>
+        <v>621</v>
+      </c>
+      <c r="AB13" s="8">
         <f t="shared" si="20"/>
-        <v>621</v>
-      </c>
-      <c r="AB13" s="8">
-        <f t="shared" si="21"/>
         <v>602.56399999999996</v>
       </c>
       <c r="AC13" s="8"/>
@@ -2252,7 +2252,7 @@
         <v>1223.5639999999999</v>
       </c>
       <c r="AE13" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1643.5639999999999</v>
       </c>
       <c r="AF13" t="b">
@@ -2264,35 +2264,35 @@
         <v>140</v>
       </c>
       <c r="AH13" s="8">
+        <f>AF13*140*N13-AG13</f>
+        <v>280</v>
+      </c>
+      <c r="AI13" s="28">
         <f t="shared" si="10"/>
-        <v>370</v>
-      </c>
-      <c r="AI13" s="28">
+        <v>1819</v>
+      </c>
+      <c r="AJ13" s="31">
         <f t="shared" si="11"/>
-        <v>1819</v>
-      </c>
-      <c r="AJ13" s="31">
+        <v>1169</v>
+      </c>
+      <c r="AK13" s="28">
         <f t="shared" si="12"/>
-        <v>1169</v>
-      </c>
-      <c r="AK13" s="28">
+        <v>1539</v>
+      </c>
+      <c r="AL13" s="28">
         <f t="shared" si="13"/>
-        <v>1449</v>
-      </c>
-      <c r="AL13" s="28">
+        <v>889</v>
+      </c>
+      <c r="AM13" t="b">
         <f t="shared" si="14"/>
-        <v>799</v>
-      </c>
-      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN13" t="b">
+      <c r="AO13" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO13" t="b">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2394,31 +2394,31 @@
         <v>0</v>
       </c>
       <c r="AI14" s="28">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="AJ14" s="28">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="28">
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="AJ14" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="28">
+      <c r="AL14" s="28">
         <f t="shared" si="13"/>
-        <v>125</v>
-      </c>
-      <c r="AL14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15">
-        <f t="shared" ref="AA15:AA16" si="22">3*291</f>
+        <f t="shared" ref="AA15:AA16" si="21">3*291</f>
         <v>873</v>
       </c>
       <c r="AD15" s="24">
@@ -2516,31 +2516,31 @@
         <v>0</v>
       </c>
       <c r="AI15" s="28">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="AJ15" s="28">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="28">
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="AJ15" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="28">
+      <c r="AL15" s="28">
         <f t="shared" si="13"/>
-        <v>125</v>
-      </c>
-      <c r="AL15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>873</v>
       </c>
       <c r="AD16" s="24">
@@ -2638,31 +2638,31 @@
         <v>0</v>
       </c>
       <c r="AI16" s="28">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="AJ16" s="28">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="28">
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="AJ16" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="28">
+      <c r="AL16" s="28">
         <f t="shared" si="13"/>
-        <v>125</v>
-      </c>
-      <c r="AL16" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO16" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
